--- a/doors-detector/results/house13_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
+++ b/doors-detector/results/house13_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7168764124273427</v>
+        <v>0.7095134835143643</v>
       </c>
       <c r="F2" t="n">
         <v>620</v>
       </c>
       <c r="G2" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H2" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6073129181899743</v>
+        <v>0.5796468143320426</v>
       </c>
       <c r="F3" t="n">
         <v>83</v>
       </c>
       <c r="G3" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H3" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5956565362780974</v>
+        <v>0.5896625578284805</v>
       </c>
       <c r="F4" t="n">
         <v>69</v>
       </c>
       <c r="G4" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7067721067562464</v>
+        <v>0.7746801891324987</v>
       </c>
       <c r="F5" t="n">
         <v>620</v>
       </c>
       <c r="G5" t="n">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="H5" t="n">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6618028130504878</v>
+        <v>0.7170342772576617</v>
       </c>
       <c r="F6" t="n">
         <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H6" t="n">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6407063559995951</v>
+        <v>0.6486647166431949</v>
       </c>
       <c r="F7" t="n">
         <v>69</v>
       </c>
       <c r="G7" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7409524248862971</v>
+        <v>0.778199211153871</v>
       </c>
       <c r="F8" t="n">
         <v>620</v>
       </c>
       <c r="G8" t="n">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="H8" t="n">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7065724844922331</v>
+        <v>0.7387492939566219</v>
       </c>
       <c r="F9" t="n">
         <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H9" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6787458106855836</v>
+        <v>0.7114327573256903</v>
       </c>
       <c r="F10" t="n">
         <v>69</v>
@@ -760,7 +760,7 @@
         <v>60</v>
       </c>
       <c r="H10" t="n">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7460855614969222</v>
+        <v>0.7730219750799191</v>
       </c>
       <c r="F11" t="n">
         <v>620</v>
       </c>
       <c r="G11" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="H11" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7036357408149564</v>
+        <v>0.7829391538316401</v>
       </c>
       <c r="F12" t="n">
         <v>83</v>
       </c>
       <c r="G12" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7220917433003032</v>
+        <v>0.7513104554800198</v>
       </c>
       <c r="F13" t="n">
         <v>69</v>
       </c>
       <c r="G13" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H13" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7339690401813407</v>
+        <v>0.8225237875590747</v>
       </c>
       <c r="F14" t="n">
         <v>620</v>
       </c>
       <c r="G14" t="n">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="H14" t="n">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7602127808218528</v>
+        <v>0.7562195769878791</v>
       </c>
       <c r="F15" t="n">
         <v>83</v>
       </c>
       <c r="G15" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7172319560953535</v>
+        <v>0.7016150221974142</v>
       </c>
       <c r="F16" t="n">
         <v>69</v>
@@ -952,7 +952,7 @@
         <v>61</v>
       </c>
       <c r="H16" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8178577987926328</v>
+        <v>0.8044135090688261</v>
       </c>
       <c r="F17" t="n">
         <v>620</v>
       </c>
       <c r="G17" t="n">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="H17" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7842086086581674</v>
+        <v>0.8033670848561117</v>
       </c>
       <c r="F18" t="n">
         <v>83</v>
       </c>
       <c r="G18" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H18" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7247486006910351</v>
+        <v>0.701297950313267</v>
       </c>
       <c r="F19" t="n">
         <v>69</v>
       </c>
       <c r="G19" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H19" t="n">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
